--- a/produits.xlsx
+++ b/produits.xlsx
@@ -283,7 +283,7 @@
     <t xml:space="preserve">Non communiquée</t>
   </si>
   <si>
-    <t xml:space="preserve">Sirop pur sucre </t>
+    <t xml:space="preserve">Sirop pur sucre</t>
   </si>
   <si>
     <t xml:space="preserve">Overstims</t>
@@ -2686,12 +2686,12 @@
   <dimension ref="A1:V678"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A661" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="S683" activeCellId="0" sqref="S683"/>
+      <selection pane="bottomLeft" activeCell="D54" activeCellId="0" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.19"/>

--- a/produits.xlsx
+++ b/produits.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3028" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3028" uniqueCount="800">
   <si>
     <t xml:space="preserve">Marque</t>
   </si>
@@ -1490,9 +1490,6 @@
   </si>
   <si>
     <t xml:space="preserve">IsoBuffer Sports Drink Orange ou Fruits des Bois</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7d Sports Nutrition</t>
   </si>
   <si>
     <t xml:space="preserve">Ultra Buffer Orange</t>
@@ -2686,12 +2683,12 @@
   <dimension ref="A1:V678"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A391" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D54" activeCellId="0" sqref="D54"/>
+      <selection pane="bottomLeft" activeCell="A411" activeCellId="0" sqref="A411"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.19"/>
@@ -27904,7 +27901,7 @@
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="0" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B406" s="0" t="s">
         <v>25</v>
@@ -27913,7 +27910,7 @@
         <v>26</v>
       </c>
       <c r="D406" s="0" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E406" s="0" t="n">
         <v>1</v>
@@ -27977,7 +27974,7 @@
         <v>21</v>
       </c>
       <c r="D407" s="0" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E407" s="0" t="n">
         <v>45</v>
@@ -28040,7 +28037,7 @@
         <v>21</v>
       </c>
       <c r="D408" s="0" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E408" s="0" t="n">
         <v>45</v>
@@ -28103,7 +28100,7 @@
         <v>21</v>
       </c>
       <c r="D409" s="0" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E409" s="0" t="n">
         <v>77</v>
@@ -28166,7 +28163,7 @@
         <v>21</v>
       </c>
       <c r="D410" s="0" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E410" s="0" t="n">
         <v>70</v>
@@ -28229,7 +28226,7 @@
         <v>21</v>
       </c>
       <c r="D411" s="0" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E411" s="0" t="n">
         <v>70</v>
@@ -28292,7 +28289,7 @@
         <v>21</v>
       </c>
       <c r="D412" s="0" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E412" s="0" t="n">
         <v>60</v>
@@ -28355,7 +28352,7 @@
         <v>21</v>
       </c>
       <c r="D413" s="0" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E413" s="0" t="n">
         <v>60</v>
@@ -28418,7 +28415,7 @@
         <v>37</v>
       </c>
       <c r="D414" s="0" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E414" s="0" t="n">
         <v>38</v>
@@ -28481,7 +28478,7 @@
         <v>37</v>
       </c>
       <c r="D415" s="0" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E415" s="0" t="n">
         <v>38</v>
@@ -28544,7 +28541,7 @@
         <v>37</v>
       </c>
       <c r="D416" s="0" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E416" s="0" t="n">
         <v>46</v>
@@ -28607,7 +28604,7 @@
         <v>37</v>
       </c>
       <c r="D417" s="0" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E417" s="0" t="n">
         <v>46</v>
@@ -28670,7 +28667,7 @@
         <v>37</v>
       </c>
       <c r="D418" s="0" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E418" s="0" t="n">
         <v>35</v>
@@ -28733,7 +28730,7 @@
         <v>37</v>
       </c>
       <c r="D419" s="0" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E419" s="0" t="n">
         <v>41</v>
@@ -28788,7 +28785,7 @@
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="0" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B420" s="0" t="s">
         <v>36</v>
@@ -28797,7 +28794,7 @@
         <v>37</v>
       </c>
       <c r="D420" s="0" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E420" s="0" t="n">
         <v>25</v>
@@ -28849,7 +28846,7 @@
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="0" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B421" s="0" t="s">
         <v>36</v>
@@ -28858,7 +28855,7 @@
         <v>37</v>
       </c>
       <c r="D421" s="0" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E421" s="0" t="n">
         <v>25</v>
@@ -28910,7 +28907,7 @@
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="0" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B422" s="0" t="s">
         <v>36</v>
@@ -28919,7 +28916,7 @@
         <v>37</v>
       </c>
       <c r="D422" s="0" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E422" s="0" t="n">
         <f aca="false">126/6</f>
@@ -28972,7 +28969,7 @@
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="0" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B423" s="0" t="s">
         <v>36</v>
@@ -28981,7 +28978,7 @@
         <v>37</v>
       </c>
       <c r="D423" s="0" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E423" s="0" t="n">
         <v>20</v>
@@ -29033,7 +29030,7 @@
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="0" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B424" s="0" t="s">
         <v>25</v>
@@ -29042,7 +29039,7 @@
         <v>26</v>
       </c>
       <c r="D424" s="0" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E424" s="0" t="n">
         <v>1</v>
@@ -29100,7 +29097,7 @@
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="0" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B425" s="0" t="s">
         <v>27</v>
@@ -29109,7 +29106,7 @@
         <v>28</v>
       </c>
       <c r="D425" s="0" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E425" s="0" t="n">
         <v>80</v>
@@ -29163,7 +29160,7 @@
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B426" s="0" t="s">
         <v>32</v>
@@ -29172,7 +29169,7 @@
         <v>33</v>
       </c>
       <c r="D426" s="0" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E426" s="0" t="n">
         <v>20</v>
@@ -29224,7 +29221,7 @@
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B427" s="0" t="s">
         <v>32</v>
@@ -29233,7 +29230,7 @@
         <v>33</v>
       </c>
       <c r="D427" s="0" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E427" s="0" t="n">
         <v>20</v>
@@ -29285,7 +29282,7 @@
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B428" s="0" t="s">
         <v>20</v>
@@ -29294,7 +29291,7 @@
         <v>21</v>
       </c>
       <c r="D428" s="0" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E428" s="0" t="n">
         <v>20</v>
@@ -29345,7 +29342,7 @@
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B429" s="0" t="s">
         <v>20</v>
@@ -29354,7 +29351,7 @@
         <v>21</v>
       </c>
       <c r="D429" s="0" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E429" s="0" t="n">
         <v>40</v>
@@ -29405,7 +29402,7 @@
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B430" s="0" t="s">
         <v>20</v>
@@ -29414,7 +29411,7 @@
         <v>21</v>
       </c>
       <c r="D430" s="0" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E430" s="0" t="n">
         <v>20</v>
@@ -29466,7 +29463,7 @@
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B431" s="0" t="s">
         <v>20</v>
@@ -29475,7 +29472,7 @@
         <v>21</v>
       </c>
       <c r="D431" s="0" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E431" s="0" t="n">
         <v>20</v>
@@ -29526,7 +29523,7 @@
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B432" s="0" t="s">
         <v>20</v>
@@ -29535,7 +29532,7 @@
         <v>21</v>
       </c>
       <c r="D432" s="0" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E432" s="0" t="n">
         <v>20</v>
@@ -29587,7 +29584,7 @@
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B433" s="0" t="s">
         <v>20</v>
@@ -29596,7 +29593,7 @@
         <v>21</v>
       </c>
       <c r="D433" s="0" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E433" s="0" t="n">
         <v>20</v>
@@ -29647,7 +29644,7 @@
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B434" s="0" t="s">
         <v>45</v>
@@ -29656,7 +29653,7 @@
         <v>46</v>
       </c>
       <c r="D434" s="0" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E434" s="0" t="n">
         <v>50</v>
@@ -29708,7 +29705,7 @@
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B435" s="0" t="s">
         <v>36</v>
@@ -29717,7 +29714,7 @@
         <v>37</v>
       </c>
       <c r="D435" s="0" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E435" s="0" t="n">
         <v>50</v>
@@ -29768,7 +29765,7 @@
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B436" s="0" t="s">
         <v>36</v>
@@ -29777,7 +29774,7 @@
         <v>37</v>
       </c>
       <c r="D436" s="0" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E436" s="0" t="n">
         <v>50</v>
@@ -29828,7 +29825,7 @@
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B437" s="0" t="s">
         <v>36</v>
@@ -29837,7 +29834,7 @@
         <v>37</v>
       </c>
       <c r="D437" s="0" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E437" s="0" t="n">
         <v>25</v>
@@ -29888,7 +29885,7 @@
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B438" s="0" t="s">
         <v>36</v>
@@ -29897,7 +29894,7 @@
         <v>37</v>
       </c>
       <c r="D438" s="0" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E438" s="0" t="n">
         <v>25</v>
@@ -29948,7 +29945,7 @@
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B439" s="0" t="s">
         <v>45</v>
@@ -29957,7 +29954,7 @@
         <v>46</v>
       </c>
       <c r="D439" s="0" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E439" s="0" t="n">
         <v>25</v>
@@ -30009,7 +30006,7 @@
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B440" s="0" t="s">
         <v>36</v>
@@ -30018,7 +30015,7 @@
         <v>37</v>
       </c>
       <c r="D440" s="0" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E440" s="0" t="n">
         <v>25</v>
@@ -30070,7 +30067,7 @@
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B441" s="0" t="s">
         <v>36</v>
@@ -30079,7 +30076,7 @@
         <v>37</v>
       </c>
       <c r="D441" s="0" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E441" s="0" t="n">
         <v>30</v>
@@ -30130,7 +30127,7 @@
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B442" s="0" t="s">
         <v>45</v>
@@ -30139,7 +30136,7 @@
         <v>46</v>
       </c>
       <c r="D442" s="0" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E442" s="0" t="n">
         <v>30</v>
@@ -30190,7 +30187,7 @@
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B443" s="0" t="s">
         <v>36</v>
@@ -30199,7 +30196,7 @@
         <v>37</v>
       </c>
       <c r="D443" s="0" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E443" s="0" t="n">
         <v>30</v>
@@ -30250,7 +30247,7 @@
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B444" s="0" t="s">
         <v>25</v>
@@ -30259,7 +30256,7 @@
         <v>26</v>
       </c>
       <c r="D444" s="0" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E444" s="0" t="n">
         <v>1</v>
@@ -30311,7 +30308,7 @@
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B445" s="0" t="s">
         <v>36</v>
@@ -30320,7 +30317,7 @@
         <v>37</v>
       </c>
       <c r="D445" s="0" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E445" s="0" t="n">
         <v>68</v>
@@ -30372,7 +30369,7 @@
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B446" s="0" t="s">
         <v>36</v>
@@ -30381,7 +30378,7 @@
         <v>37</v>
       </c>
       <c r="D446" s="0" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E446" s="0" t="n">
         <v>68</v>
@@ -30433,7 +30430,7 @@
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B447" s="0" t="s">
         <v>36</v>
@@ -30442,7 +30439,7 @@
         <v>37</v>
       </c>
       <c r="D447" s="0" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E447" s="0" t="n">
         <v>68</v>
@@ -30494,7 +30491,7 @@
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B448" s="0" t="s">
         <v>36</v>
@@ -30503,7 +30500,7 @@
         <v>37</v>
       </c>
       <c r="D448" s="0" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E448" s="0" t="n">
         <v>68</v>
@@ -30555,7 +30552,7 @@
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B449" s="0" t="s">
         <v>36</v>
@@ -30564,7 +30561,7 @@
         <v>37</v>
       </c>
       <c r="D449" s="0" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E449" s="0" t="n">
         <v>60</v>
@@ -30616,7 +30613,7 @@
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B450" s="0" t="s">
         <v>36</v>
@@ -30625,7 +30622,7 @@
         <v>37</v>
       </c>
       <c r="D450" s="0" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E450" s="0" t="n">
         <v>60</v>
@@ -30677,7 +30674,7 @@
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B451" s="0" t="s">
         <v>36</v>
@@ -30686,7 +30683,7 @@
         <v>37</v>
       </c>
       <c r="D451" s="0" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E451" s="0" t="n">
         <v>60</v>
@@ -30737,7 +30734,7 @@
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B452" s="0" t="s">
         <v>36</v>
@@ -30746,7 +30743,7 @@
         <v>37</v>
       </c>
       <c r="D452" s="0" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E452" s="0" t="n">
         <v>60</v>
@@ -30797,7 +30794,7 @@
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B453" s="0" t="s">
         <v>36</v>
@@ -30806,7 +30803,7 @@
         <v>37</v>
       </c>
       <c r="D453" s="0" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E453" s="0" t="n">
         <v>45</v>
@@ -30858,7 +30855,7 @@
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B454" s="0" t="s">
         <v>36</v>
@@ -30867,7 +30864,7 @@
         <v>37</v>
       </c>
       <c r="D454" s="0" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E454" s="0" t="n">
         <v>45</v>
@@ -30919,7 +30916,7 @@
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B455" s="0" t="s">
         <v>36</v>
@@ -30928,7 +30925,7 @@
         <v>37</v>
       </c>
       <c r="D455" s="0" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E455" s="0" t="n">
         <v>45</v>
@@ -30979,7 +30976,7 @@
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B456" s="0" t="s">
         <v>36</v>
@@ -30988,7 +30985,7 @@
         <v>37</v>
       </c>
       <c r="D456" s="0" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E456" s="0" t="n">
         <v>45</v>
@@ -31039,7 +31036,7 @@
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B457" s="0" t="s">
         <v>36</v>
@@ -31048,7 +31045,7 @@
         <v>37</v>
       </c>
       <c r="D457" s="0" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E457" s="0" t="n">
         <v>45</v>
@@ -31099,7 +31096,7 @@
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B458" s="0" t="s">
         <v>36</v>
@@ -31108,7 +31105,7 @@
         <v>37</v>
       </c>
       <c r="D458" s="0" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E458" s="0" t="n">
         <v>60</v>
@@ -31160,7 +31157,7 @@
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B459" s="0" t="s">
         <v>36</v>
@@ -31169,7 +31166,7 @@
         <v>37</v>
       </c>
       <c r="D459" s="0" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E459" s="0" t="n">
         <v>50</v>
@@ -31221,7 +31218,7 @@
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B460" s="0" t="s">
         <v>36</v>
@@ -31230,7 +31227,7 @@
         <v>37</v>
       </c>
       <c r="D460" s="0" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E460" s="0" t="n">
         <v>40</v>
@@ -31277,7 +31274,7 @@
         <v>1</v>
       </c>
       <c r="S460" s="0" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="V460" s="0" t="n">
         <v>0</v>
@@ -31285,7 +31282,7 @@
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B461" s="0" t="s">
         <v>36</v>
@@ -31294,7 +31291,7 @@
         <v>37</v>
       </c>
       <c r="D461" s="0" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E461" s="0" t="n">
         <v>40</v>
@@ -31346,7 +31343,7 @@
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B462" s="0" t="s">
         <v>25</v>
@@ -31355,7 +31352,7 @@
         <v>26</v>
       </c>
       <c r="D462" s="0" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E462" s="0" t="n">
         <v>1</v>
@@ -31407,7 +31404,7 @@
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B463" s="0" t="s">
         <v>25</v>
@@ -31416,7 +31413,7 @@
         <v>26</v>
       </c>
       <c r="D463" s="0" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E463" s="0" t="n">
         <v>1</v>
@@ -31467,7 +31464,7 @@
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B464" s="0" t="s">
         <v>25</v>
@@ -31476,7 +31473,7 @@
         <v>26</v>
       </c>
       <c r="D464" s="0" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E464" s="0" t="n">
         <v>1</v>
@@ -31527,7 +31524,7 @@
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B465" s="0" t="s">
         <v>25</v>
@@ -31536,7 +31533,7 @@
         <v>26</v>
       </c>
       <c r="D465" s="0" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E465" s="0" t="n">
         <v>1</v>
@@ -31590,7 +31587,7 @@
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B466" s="0" t="s">
         <v>25</v>
@@ -31599,7 +31596,7 @@
         <v>26</v>
       </c>
       <c r="D466" s="0" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E466" s="0" t="n">
         <v>1</v>
@@ -31651,7 +31648,7 @@
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B467" s="0" t="s">
         <v>20</v>
@@ -31660,7 +31657,7 @@
         <v>21</v>
       </c>
       <c r="D467" s="0" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E467" s="0" t="n">
         <v>35</v>
@@ -31711,7 +31708,7 @@
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B468" s="0" t="s">
         <v>20</v>
@@ -31720,7 +31717,7 @@
         <v>21</v>
       </c>
       <c r="D468" s="0" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E468" s="0" t="n">
         <v>70</v>
@@ -31771,7 +31768,7 @@
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B469" s="0" t="s">
         <v>20</v>
@@ -31780,7 +31777,7 @@
         <v>21</v>
       </c>
       <c r="D469" s="10" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E469" s="0" t="n">
         <v>70</v>
@@ -31831,7 +31828,7 @@
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B470" s="0" t="s">
         <v>20</v>
@@ -31840,7 +31837,7 @@
         <v>21</v>
       </c>
       <c r="D470" s="0" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E470" s="0" t="n">
         <v>35</v>
@@ -31891,7 +31888,7 @@
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B471" s="0" t="s">
         <v>20</v>
@@ -31900,7 +31897,7 @@
         <v>21</v>
       </c>
       <c r="D471" s="0" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E471" s="0" t="n">
         <v>70</v>
@@ -31954,7 +31951,7 @@
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B472" s="0" t="s">
         <v>20</v>
@@ -31963,7 +31960,7 @@
         <v>21</v>
       </c>
       <c r="D472" s="0" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E472" s="0" t="n">
         <v>25</v>
@@ -32017,7 +32014,7 @@
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B473" s="0" t="s">
         <v>36</v>
@@ -32026,7 +32023,7 @@
         <v>37</v>
       </c>
       <c r="D473" s="0" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E473" s="0" t="n">
         <v>75</v>
@@ -32080,7 +32077,7 @@
     </row>
     <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B474" s="0" t="s">
         <v>36</v>
@@ -32089,7 +32086,7 @@
         <v>37</v>
       </c>
       <c r="D474" s="0" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E474" s="0" t="n">
         <v>75</v>
@@ -32140,7 +32137,7 @@
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B475" s="0" t="s">
         <v>36</v>
@@ -32149,7 +32146,7 @@
         <v>37</v>
       </c>
       <c r="D475" s="0" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E475" s="0" t="n">
         <v>75</v>
@@ -32195,7 +32192,7 @@
         <v>0</v>
       </c>
       <c r="S475" s="0" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="V475" s="0" t="n">
         <v>0</v>
@@ -32203,7 +32200,7 @@
     </row>
     <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="10" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B476" s="0" t="s">
         <v>36</v>
@@ -32212,7 +32209,7 @@
         <v>37</v>
       </c>
       <c r="D476" s="0" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E476" s="0" t="n">
         <v>30</v>
@@ -32258,7 +32255,7 @@
         <v>0</v>
       </c>
       <c r="U476" s="0" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="V476" s="0" t="n">
         <v>1</v>
@@ -32266,7 +32263,7 @@
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="10" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B477" s="0" t="s">
         <v>45</v>
@@ -32275,7 +32272,7 @@
         <v>46</v>
       </c>
       <c r="D477" s="0" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E477" s="0" t="n">
         <v>30</v>
@@ -32322,7 +32319,7 @@
         <v>0</v>
       </c>
       <c r="U477" s="0" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="V477" s="0" t="n">
         <v>1</v>
@@ -32330,7 +32327,7 @@
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="10" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B478" s="0" t="s">
         <v>20</v>
@@ -32339,7 +32336,7 @@
         <v>21</v>
       </c>
       <c r="D478" s="0" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E478" s="0" t="n">
         <v>28.6</v>
@@ -32386,7 +32383,7 @@
         <v>0</v>
       </c>
       <c r="U478" s="0" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="V478" s="0" t="n">
         <v>1</v>
@@ -32394,7 +32391,7 @@
     </row>
     <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="10" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B479" s="0" t="s">
         <v>20</v>
@@ -32403,7 +32400,7 @@
         <v>21</v>
       </c>
       <c r="D479" s="0" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E479" s="0" t="n">
         <v>28.6</v>
@@ -32450,7 +32447,7 @@
         <v>0</v>
       </c>
       <c r="U479" s="0" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="V479" s="0" t="n">
         <v>1</v>
@@ -32458,7 +32455,7 @@
     </row>
     <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="0" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B480" s="0" t="s">
         <v>20</v>
@@ -32467,7 +32464,7 @@
         <v>21</v>
       </c>
       <c r="D480" s="0" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E480" s="0" t="n">
         <v>100</v>
@@ -32518,7 +32515,7 @@
     </row>
     <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="0" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B481" s="0" t="s">
         <v>20</v>
@@ -32527,7 +32524,7 @@
         <v>21</v>
       </c>
       <c r="D481" s="0" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E481" s="0" t="n">
         <v>80</v>
@@ -32578,7 +32575,7 @@
     </row>
     <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="0" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B482" s="0" t="s">
         <v>20</v>
@@ -32587,7 +32584,7 @@
         <v>21</v>
       </c>
       <c r="D482" s="10" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E482" s="0" t="n">
         <v>80</v>
@@ -32638,7 +32635,7 @@
     </row>
     <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="0" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B483" s="0" t="s">
         <v>20</v>
@@ -32647,7 +32644,7 @@
         <v>21</v>
       </c>
       <c r="D483" s="10" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E483" s="0" t="n">
         <v>60</v>
@@ -32698,7 +32695,7 @@
     </row>
     <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="0" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B484" s="0" t="s">
         <v>20</v>
@@ -32707,7 +32704,7 @@
         <v>21</v>
       </c>
       <c r="D484" s="10" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E484" s="0" t="n">
         <v>60</v>
@@ -32758,7 +32755,7 @@
     </row>
     <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="0" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B485" s="0" t="s">
         <v>25</v>
@@ -32767,7 +32764,7 @@
         <v>26</v>
       </c>
       <c r="D485" s="0" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E485" s="0" t="n">
         <v>52</v>
@@ -32818,7 +32815,7 @@
     </row>
     <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="0" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B486" s="0" t="s">
         <v>25</v>
@@ -32827,7 +32824,7 @@
         <v>26</v>
       </c>
       <c r="D486" s="0" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E486" s="0" t="n">
         <v>1</v>
@@ -32878,7 +32875,7 @@
     </row>
     <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="0" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B487" s="0" t="s">
         <v>25</v>
@@ -32887,7 +32884,7 @@
         <v>26</v>
       </c>
       <c r="D487" s="0" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E487" s="0" t="n">
         <v>106</v>
@@ -32938,7 +32935,7 @@
     </row>
     <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="0" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B488" s="0" t="s">
         <v>25</v>
@@ -32947,7 +32944,7 @@
         <v>26</v>
       </c>
       <c r="D488" s="0" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E488" s="0" t="n">
         <v>1</v>
@@ -32999,7 +32996,7 @@
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="0" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B489" s="0" t="s">
         <v>36</v>
@@ -33008,7 +33005,7 @@
         <v>37</v>
       </c>
       <c r="D489" s="0" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E489" s="0" t="n">
         <v>60</v>
@@ -33059,7 +33056,7 @@
     </row>
     <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="0" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B490" s="0" t="s">
         <v>36</v>
@@ -33068,7 +33065,7 @@
         <v>37</v>
       </c>
       <c r="D490" s="0" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E490" s="0" t="n">
         <v>60</v>
@@ -33120,7 +33117,7 @@
     </row>
     <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="0" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B491" s="0" t="s">
         <v>36</v>
@@ -33129,7 +33126,7 @@
         <v>37</v>
       </c>
       <c r="D491" s="0" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E491" s="0" t="n">
         <v>60</v>
@@ -33181,7 +33178,7 @@
     </row>
     <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="0" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B492" s="0" t="s">
         <v>36</v>
@@ -33190,7 +33187,7 @@
         <v>37</v>
       </c>
       <c r="D492" s="0" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E492" s="0" t="n">
         <v>60</v>
@@ -33241,7 +33238,7 @@
     </row>
     <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="0" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B493" s="0" t="s">
         <v>36</v>
@@ -33250,7 +33247,7 @@
         <v>37</v>
       </c>
       <c r="D493" s="0" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E493" s="0" t="n">
         <v>60</v>
@@ -33301,7 +33298,7 @@
     </row>
     <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="0" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B494" s="0" t="s">
         <v>36</v>
@@ -33310,7 +33307,7 @@
         <v>37</v>
       </c>
       <c r="D494" s="0" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E494" s="0" t="n">
         <v>65</v>
@@ -33361,7 +33358,7 @@
     </row>
     <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="0" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B495" s="0" t="s">
         <v>36</v>
@@ -33370,7 +33367,7 @@
         <v>37</v>
       </c>
       <c r="D495" s="0" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E495" s="0" t="n">
         <v>45</v>
@@ -33421,7 +33418,7 @@
     </row>
     <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="0" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B496" s="0" t="s">
         <v>36</v>
@@ -33430,7 +33427,7 @@
         <v>37</v>
       </c>
       <c r="D496" s="0" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E496" s="0" t="n">
         <v>45</v>
@@ -33481,7 +33478,7 @@
     </row>
     <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="0" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B497" s="0" t="s">
         <v>36</v>
@@ -33490,7 +33487,7 @@
         <v>37</v>
       </c>
       <c r="D497" s="0" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E497" s="0" t="n">
         <v>45</v>
@@ -33541,7 +33538,7 @@
     </row>
     <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="0" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B498" s="0" t="s">
         <v>36</v>
@@ -33550,7 +33547,7 @@
         <v>37</v>
       </c>
       <c r="D498" s="0" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E498" s="0" t="n">
         <v>30</v>
@@ -33602,16 +33599,16 @@
     </row>
     <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="0" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B499" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C499" s="0" t="s">
+        <v>594</v>
+      </c>
+      <c r="D499" s="0" t="s">
         <v>595</v>
-      </c>
-      <c r="D499" s="0" t="s">
-        <v>596</v>
       </c>
       <c r="E499" s="0" t="n">
         <v>25</v>
@@ -33657,10 +33654,10 @@
         <v>0</v>
       </c>
       <c r="S499" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="U499" s="0" t="s">
         <v>597</v>
-      </c>
-      <c r="U499" s="0" t="s">
-        <v>598</v>
       </c>
       <c r="V499" s="0" t="n">
         <v>1</v>
@@ -33668,7 +33665,7 @@
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="0" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B500" s="0" t="s">
         <v>25</v>
@@ -33677,7 +33674,7 @@
         <v>26</v>
       </c>
       <c r="D500" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E500" s="0" t="n">
         <v>1</v>
@@ -33724,7 +33721,7 @@
         <v>0</v>
       </c>
       <c r="U500" s="10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V500" s="0" t="n">
         <v>1</v>
@@ -33732,7 +33729,7 @@
     </row>
     <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="0" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B501" s="0" t="s">
         <v>25</v>
@@ -33741,7 +33738,7 @@
         <v>26</v>
       </c>
       <c r="D501" s="0" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E501" s="0" t="n">
         <v>1</v>
@@ -33788,7 +33785,7 @@
         <v>0</v>
       </c>
       <c r="U501" s="10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V501" s="0" t="n">
         <v>1</v>
@@ -33796,7 +33793,7 @@
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="0" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B502" s="0" t="s">
         <v>25</v>
@@ -33805,7 +33802,7 @@
         <v>26</v>
       </c>
       <c r="D502" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E502" s="0" t="n">
         <v>1</v>
@@ -33852,7 +33849,7 @@
         <v>0</v>
       </c>
       <c r="U502" s="10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V502" s="0" t="n">
         <v>1</v>
@@ -33860,7 +33857,7 @@
     </row>
     <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="0" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B503" s="0" t="s">
         <v>25</v>
@@ -33869,7 +33866,7 @@
         <v>26</v>
       </c>
       <c r="D503" s="0" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E503" s="0" t="n">
         <v>1</v>
@@ -33915,7 +33912,7 @@
         <v>0</v>
       </c>
       <c r="U503" s="10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V503" s="0" t="n">
         <v>1</v>
@@ -33923,7 +33920,7 @@
     </row>
     <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="0" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B504" s="0" t="s">
         <v>25</v>
@@ -33932,7 +33929,7 @@
         <v>26</v>
       </c>
       <c r="D504" s="0" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E504" s="0" t="n">
         <v>1</v>
@@ -33979,7 +33976,7 @@
         <v>1</v>
       </c>
       <c r="U504" s="10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V504" s="0" t="n">
         <v>1</v>
@@ -33987,7 +33984,7 @@
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="0" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B505" s="0" t="s">
         <v>20</v>
@@ -33996,7 +33993,7 @@
         <v>21</v>
       </c>
       <c r="D505" s="0" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E505" s="0" t="n">
         <v>25</v>
@@ -34042,7 +34039,7 @@
         <v>0</v>
       </c>
       <c r="U505" s="10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V505" s="0" t="n">
         <v>1</v>
@@ -34050,7 +34047,7 @@
     </row>
     <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="0" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B506" s="0" t="s">
         <v>20</v>
@@ -34059,7 +34056,7 @@
         <v>21</v>
       </c>
       <c r="D506" s="0" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E506" s="0" t="n">
         <v>25</v>
@@ -34105,7 +34102,7 @@
         <v>0</v>
       </c>
       <c r="U506" s="10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V506" s="0" t="n">
         <v>1</v>
@@ -34113,7 +34110,7 @@
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="0" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B507" s="0" t="s">
         <v>20</v>
@@ -34122,7 +34119,7 @@
         <v>21</v>
       </c>
       <c r="D507" s="0" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E507" s="0" t="n">
         <v>25</v>
@@ -34171,7 +34168,7 @@
         <v>500</v>
       </c>
       <c r="U507" s="10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V507" s="0" t="n">
         <v>1</v>
@@ -34179,7 +34176,7 @@
     </row>
     <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="0" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B508" s="0" t="s">
         <v>20</v>
@@ -34188,7 +34185,7 @@
         <v>21</v>
       </c>
       <c r="D508" s="0" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E508" s="0" t="n">
         <v>25</v>
@@ -34234,10 +34231,10 @@
         <v>0</v>
       </c>
       <c r="S508" s="0" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="U508" s="10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V508" s="0" t="n">
         <v>1</v>
@@ -34245,7 +34242,7 @@
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="0" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B509" s="0" t="s">
         <v>20</v>
@@ -34254,7 +34251,7 @@
         <v>21</v>
       </c>
       <c r="D509" s="0" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E509" s="0" t="n">
         <v>25</v>
@@ -34300,7 +34297,7 @@
         <v>0</v>
       </c>
       <c r="U509" s="10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V509" s="0" t="n">
         <v>1</v>
@@ -34308,7 +34305,7 @@
     </row>
     <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="0" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B510" s="0" t="s">
         <v>20</v>
@@ -34317,7 +34314,7 @@
         <v>21</v>
       </c>
       <c r="D510" s="0" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E510" s="0" t="n">
         <v>25</v>
@@ -34363,7 +34360,7 @@
         <v>0</v>
       </c>
       <c r="U510" s="10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V510" s="0" t="n">
         <v>1</v>
@@ -34371,7 +34368,7 @@
     </row>
     <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="0" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B511" s="0" t="s">
         <v>20</v>
@@ -34380,7 +34377,7 @@
         <v>21</v>
       </c>
       <c r="D511" s="0" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E511" s="0" t="n">
         <v>25</v>
@@ -34426,7 +34423,7 @@
         <v>0</v>
       </c>
       <c r="U511" s="10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V511" s="0" t="n">
         <v>1</v>
@@ -34434,7 +34431,7 @@
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="0" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B512" s="0" t="s">
         <v>36</v>
@@ -34443,7 +34440,7 @@
         <v>37</v>
       </c>
       <c r="D512" s="0" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E512" s="0" t="n">
         <v>45</v>
@@ -34489,7 +34486,7 @@
         <v>1</v>
       </c>
       <c r="U512" s="10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V512" s="0" t="n">
         <v>1</v>
@@ -34497,7 +34494,7 @@
     </row>
     <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="0" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B513" s="0" t="s">
         <v>36</v>
@@ -34506,7 +34503,7 @@
         <v>37</v>
       </c>
       <c r="D513" s="0" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E513" s="0" t="n">
         <v>50</v>
@@ -34555,10 +34552,10 @@
         <v>1700</v>
       </c>
       <c r="S513" s="0" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="U513" s="10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V513" s="0" t="n">
         <v>1</v>
@@ -34566,7 +34563,7 @@
     </row>
     <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="0" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B514" s="0" t="s">
         <v>36</v>
@@ -34575,7 +34572,7 @@
         <v>37</v>
       </c>
       <c r="D514" s="0" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E514" s="0" t="n">
         <v>35</v>
@@ -34621,7 +34618,7 @@
         <v>0</v>
       </c>
       <c r="U514" s="10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V514" s="0" t="n">
         <v>1</v>
@@ -34629,7 +34626,7 @@
     </row>
     <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="0" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B515" s="0" t="s">
         <v>36</v>
@@ -34638,7 +34635,7 @@
         <v>37</v>
       </c>
       <c r="D515" s="0" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E515" s="0" t="n">
         <v>30</v>
@@ -34691,7 +34688,7 @@
     </row>
     <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="0" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B516" s="0" t="s">
         <v>45</v>
@@ -34700,7 +34697,7 @@
         <v>46</v>
       </c>
       <c r="D516" s="0" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E516" s="0" t="n">
         <v>42</v>
@@ -34753,7 +34750,7 @@
     </row>
     <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="0" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B517" s="0" t="s">
         <v>36</v>
@@ -34762,7 +34759,7 @@
         <v>37</v>
       </c>
       <c r="D517" s="0" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E517" s="0" t="n">
         <v>35</v>
@@ -34814,7 +34811,7 @@
     </row>
     <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="0" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B518" s="0" t="s">
         <v>36</v>
@@ -34823,7 +34820,7 @@
         <v>37</v>
       </c>
       <c r="D518" s="10" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E518" s="0" t="n">
         <v>35</v>
@@ -34875,7 +34872,7 @@
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="0" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B519" s="0" t="s">
         <v>36</v>
@@ -34884,7 +34881,7 @@
         <v>37</v>
       </c>
       <c r="D519" s="0" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E519" s="0" t="n">
         <v>50</v>
@@ -34936,7 +34933,7 @@
     </row>
     <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="0" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B520" s="0" t="s">
         <v>36</v>
@@ -34945,7 +34942,7 @@
         <v>37</v>
       </c>
       <c r="D520" s="0" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E520" s="0" t="n">
         <v>27</v>
@@ -34997,7 +34994,7 @@
     </row>
     <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="0" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B521" s="0" t="s">
         <v>36</v>
@@ -35006,7 +35003,7 @@
         <v>37</v>
       </c>
       <c r="D521" s="0" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E521" s="0" t="n">
         <v>27</v>
@@ -35058,7 +35055,7 @@
     </row>
     <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="0" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B522" s="0" t="s">
         <v>36</v>
@@ -35067,7 +35064,7 @@
         <v>37</v>
       </c>
       <c r="D522" s="0" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E522" s="0" t="n">
         <v>20</v>
@@ -35119,7 +35116,7 @@
     </row>
     <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="0" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B523" s="0" t="s">
         <v>36</v>
@@ -35128,7 +35125,7 @@
         <v>37</v>
       </c>
       <c r="D523" s="0" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E523" s="0" t="n">
         <v>30</v>
@@ -35179,7 +35176,7 @@
     </row>
     <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="0" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B524" s="0" t="s">
         <v>20</v>
@@ -35188,7 +35185,7 @@
         <v>21</v>
       </c>
       <c r="D524" s="0" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E524" s="0" t="n">
         <v>35</v>
@@ -35240,7 +35237,7 @@
     </row>
     <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="0" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B525" s="0" t="s">
         <v>20</v>
@@ -35249,7 +35246,7 @@
         <v>21</v>
       </c>
       <c r="D525" s="0" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E525" s="0" t="n">
         <v>40</v>
@@ -35301,7 +35298,7 @@
     </row>
     <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="0" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B526" s="0" t="s">
         <v>20</v>
@@ -35310,7 +35307,7 @@
         <v>21</v>
       </c>
       <c r="D526" s="0" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E526" s="0" t="n">
         <v>40</v>
@@ -35362,7 +35359,7 @@
     </row>
     <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="0" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B527" s="0" t="s">
         <v>20</v>
@@ -35371,7 +35368,7 @@
         <v>21</v>
       </c>
       <c r="D527" s="10" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E527" s="0" t="n">
         <v>40</v>
@@ -35423,7 +35420,7 @@
     </row>
     <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="0" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B528" s="0" t="s">
         <v>20</v>
@@ -35432,7 +35429,7 @@
         <v>21</v>
       </c>
       <c r="D528" s="0" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E528" s="0" t="n">
         <v>35</v>
@@ -35487,7 +35484,7 @@
     </row>
     <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="0" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B529" s="0" t="s">
         <v>20</v>
@@ -35496,7 +35493,7 @@
         <v>21</v>
       </c>
       <c r="D529" s="0" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E529" s="0" t="n">
         <v>35</v>
@@ -35548,7 +35545,7 @@
     </row>
     <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="0" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B530" s="0" t="s">
         <v>20</v>
@@ -35557,7 +35554,7 @@
         <v>21</v>
       </c>
       <c r="D530" s="0" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E530" s="0" t="n">
         <v>35</v>
@@ -35609,7 +35606,7 @@
     </row>
     <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="0" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B531" s="0" t="s">
         <v>20</v>
@@ -35618,7 +35615,7 @@
         <v>21</v>
       </c>
       <c r="D531" s="0" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E531" s="0" t="n">
         <v>37</v>
@@ -35670,7 +35667,7 @@
     </row>
     <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="0" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B532" s="0" t="s">
         <v>25</v>
@@ -35679,7 +35676,7 @@
         <v>26</v>
       </c>
       <c r="D532" s="0" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E532" s="0" t="n">
         <v>1</v>
@@ -35734,7 +35731,7 @@
     </row>
     <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="0" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B533" s="0" t="s">
         <v>25</v>
@@ -35743,7 +35740,7 @@
         <v>26</v>
       </c>
       <c r="D533" s="0" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E533" s="0" t="n">
         <v>1</v>
@@ -35795,7 +35792,7 @@
     </row>
     <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="0" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B534" s="0" t="s">
         <v>25</v>
@@ -35804,7 +35801,7 @@
         <v>26</v>
       </c>
       <c r="D534" s="0" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E534" s="0" t="n">
         <v>1</v>
@@ -35856,7 +35853,7 @@
     </row>
     <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="0" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B535" s="0" t="s">
         <v>25</v>
@@ -35865,7 +35862,7 @@
         <v>26</v>
       </c>
       <c r="D535" s="0" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E535" s="0" t="n">
         <v>1</v>
@@ -35917,7 +35914,7 @@
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="0" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B536" s="0" t="s">
         <v>25</v>
@@ -35926,7 +35923,7 @@
         <v>26</v>
       </c>
       <c r="D536" s="0" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E536" s="0" t="n">
         <v>1</v>
@@ -35981,7 +35978,7 @@
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="0" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B537" s="0" t="s">
         <v>25</v>
@@ -35990,7 +35987,7 @@
         <v>26</v>
       </c>
       <c r="D537" s="0" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E537" s="0" t="n">
         <v>1</v>
@@ -36042,7 +36039,7 @@
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="0" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B538" s="0" t="s">
         <v>25</v>
@@ -36051,7 +36048,7 @@
         <v>26</v>
       </c>
       <c r="D538" s="0" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E538" s="0" t="n">
         <v>1</v>
@@ -36102,7 +36099,7 @@
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="0" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B539" s="0" t="s">
         <v>25</v>
@@ -36111,7 +36108,7 @@
         <v>26</v>
       </c>
       <c r="D539" s="0" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E539" s="0" t="n">
         <v>1</v>
@@ -36162,7 +36159,7 @@
     </row>
     <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="0" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B540" s="0" t="s">
         <v>25</v>
@@ -36171,7 +36168,7 @@
         <v>26</v>
       </c>
       <c r="D540" s="0" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E540" s="0" t="n">
         <v>1</v>
@@ -36222,7 +36219,7 @@
     </row>
     <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="0" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B541" s="0" t="s">
         <v>25</v>
@@ -36231,7 +36228,7 @@
         <v>26</v>
       </c>
       <c r="D541" s="0" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E541" s="0" t="n">
         <v>1</v>
@@ -36282,7 +36279,7 @@
     </row>
     <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="0" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B542" s="0" t="s">
         <v>20</v>
@@ -36291,7 +36288,7 @@
         <v>21</v>
       </c>
       <c r="D542" s="0" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E542" s="0" t="n">
         <v>50</v>
@@ -36342,7 +36339,7 @@
     </row>
     <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="0" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B543" s="0" t="s">
         <v>20</v>
@@ -36351,7 +36348,7 @@
         <v>21</v>
       </c>
       <c r="D543" s="0" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E543" s="0" t="n">
         <v>25</v>
@@ -36402,7 +36399,7 @@
     </row>
     <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="0" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B544" s="0" t="s">
         <v>20</v>
@@ -36411,7 +36408,7 @@
         <v>21</v>
       </c>
       <c r="D544" s="0" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E544" s="0" t="n">
         <v>75</v>
@@ -36463,7 +36460,7 @@
     </row>
     <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="0" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B545" s="0" t="s">
         <v>36</v>
@@ -36472,7 +36469,7 @@
         <v>37</v>
       </c>
       <c r="D545" s="0" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E545" s="0" t="n">
         <v>40</v>
@@ -36525,7 +36522,7 @@
     </row>
     <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="0" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B546" s="0" t="s">
         <v>45</v>
@@ -36534,7 +36531,7 @@
         <v>46</v>
       </c>
       <c r="D546" s="10" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E546" s="0" t="n">
         <v>40</v>
@@ -36586,7 +36583,7 @@
     </row>
     <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="0" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B547" s="0" t="s">
         <v>36</v>
@@ -36595,7 +36592,7 @@
         <v>37</v>
       </c>
       <c r="D547" s="0" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E547" s="0" t="n">
         <v>40</v>
@@ -36646,7 +36643,7 @@
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="0" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B548" s="0" t="s">
         <v>36</v>
@@ -36655,7 +36652,7 @@
         <v>37</v>
       </c>
       <c r="D548" s="0" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E548" s="0" t="n">
         <v>40</v>
@@ -36706,7 +36703,7 @@
     </row>
     <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="0" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B549" s="0" t="s">
         <v>36</v>
@@ -36715,7 +36712,7 @@
         <v>37</v>
       </c>
       <c r="D549" s="0" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E549" s="0" t="n">
         <v>34</v>
@@ -36767,7 +36764,7 @@
     </row>
     <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="0" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B550" s="0" t="s">
         <v>45</v>
@@ -36776,7 +36773,7 @@
         <v>46</v>
       </c>
       <c r="D550" s="0" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E550" s="0" t="n">
         <v>34</v>
@@ -36829,7 +36826,7 @@
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="0" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B551" s="0" t="s">
         <v>36</v>
@@ -36838,7 +36835,7 @@
         <v>37</v>
       </c>
       <c r="D551" s="0" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E551" s="0" t="n">
         <v>34</v>
@@ -36890,7 +36887,7 @@
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B552" s="0" t="s">
         <v>36</v>
@@ -36899,7 +36896,7 @@
         <v>37</v>
       </c>
       <c r="D552" s="0" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E552" s="0" t="n">
         <v>26</v>
@@ -36945,7 +36942,7 @@
         <v>0</v>
       </c>
       <c r="U552" s="0" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="V552" s="0" t="n">
         <v>1</v>
@@ -36953,7 +36950,7 @@
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B553" s="0" t="s">
         <v>36</v>
@@ -36962,7 +36959,7 @@
         <v>37</v>
       </c>
       <c r="D553" s="0" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E553" s="0" t="n">
         <v>55</v>
@@ -37008,7 +37005,7 @@
         <v>0</v>
       </c>
       <c r="U553" s="0" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="V553" s="0" t="n">
         <v>1</v>
@@ -37016,7 +37013,7 @@
     </row>
     <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B554" s="0" t="s">
         <v>36</v>
@@ -37025,7 +37022,7 @@
         <v>37</v>
       </c>
       <c r="D554" s="0" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E554" s="0" t="n">
         <v>55</v>
@@ -37072,7 +37069,7 @@
         <v>1</v>
       </c>
       <c r="U554" s="0" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="V554" s="0" t="n">
         <v>1</v>
@@ -37080,7 +37077,7 @@
     </row>
     <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B555" s="0" t="s">
         <v>36</v>
@@ -37089,7 +37086,7 @@
         <v>37</v>
       </c>
       <c r="D555" s="0" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E555" s="0" t="n">
         <v>55</v>
@@ -37135,7 +37132,7 @@
         <v>0</v>
       </c>
       <c r="U555" s="0" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="V555" s="0" t="n">
         <v>1</v>
@@ -37143,7 +37140,7 @@
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B556" s="0" t="s">
         <v>36</v>
@@ -37152,7 +37149,7 @@
         <v>37</v>
       </c>
       <c r="D556" s="0" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E556" s="0" t="n">
         <v>55</v>
@@ -37199,7 +37196,7 @@
         <v>0</v>
       </c>
       <c r="U556" s="0" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="V556" s="0" t="n">
         <v>1</v>
@@ -37207,7 +37204,7 @@
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B557" s="0" t="s">
         <v>36</v>
@@ -37216,7 +37213,7 @@
         <v>37</v>
       </c>
       <c r="D557" s="0" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E557" s="0" t="n">
         <v>55</v>
@@ -37263,7 +37260,7 @@
         <v>0</v>
       </c>
       <c r="U557" s="0" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="V557" s="0" t="n">
         <v>1</v>
@@ -37271,7 +37268,7 @@
     </row>
     <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B558" s="0" t="s">
         <v>20</v>
@@ -37280,7 +37277,7 @@
         <v>21</v>
       </c>
       <c r="D558" s="0" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E558" s="0" t="n">
         <v>40</v>
@@ -37326,7 +37323,7 @@
         <v>0</v>
       </c>
       <c r="U558" s="0" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="V558" s="0" t="n">
         <v>1</v>
@@ -37334,7 +37331,7 @@
     </row>
     <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B559" s="0" t="s">
         <v>20</v>
@@ -37343,7 +37340,7 @@
         <v>21</v>
       </c>
       <c r="D559" s="0" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E559" s="0" t="n">
         <v>60</v>
@@ -37390,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="U559" s="0" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="V559" s="0" t="n">
         <v>1</v>
@@ -37398,7 +37395,7 @@
     </row>
     <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B560" s="0" t="s">
         <v>20</v>
@@ -37407,7 +37404,7 @@
         <v>21</v>
       </c>
       <c r="D560" s="0" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E560" s="0" t="n">
         <v>66</v>
@@ -37454,7 +37451,7 @@
         <v>0</v>
       </c>
       <c r="U560" s="0" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="V560" s="0" t="n">
         <v>1</v>
@@ -37462,7 +37459,7 @@
     </row>
     <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B561" s="0" t="s">
         <v>20</v>
@@ -37471,7 +37468,7 @@
         <v>21</v>
       </c>
       <c r="D561" s="0" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E561" s="0" t="n">
         <v>40</v>
@@ -37518,7 +37515,7 @@
         <v>0</v>
       </c>
       <c r="U561" s="0" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="V561" s="0" t="n">
         <v>1</v>
@@ -37526,7 +37523,7 @@
     </row>
     <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B562" s="0" t="s">
         <v>20</v>
@@ -37535,7 +37532,7 @@
         <v>21</v>
       </c>
       <c r="D562" s="0" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E562" s="0" t="n">
         <v>66</v>
@@ -37582,7 +37579,7 @@
         <v>0</v>
       </c>
       <c r="U562" s="0" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="V562" s="0" t="n">
         <v>1</v>
@@ -37590,7 +37587,7 @@
     </row>
     <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B563" s="0" t="s">
         <v>20</v>
@@ -37599,7 +37596,7 @@
         <v>21</v>
       </c>
       <c r="D563" s="0" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E563" s="0" t="n">
         <v>66</v>
@@ -37646,7 +37643,7 @@
         <v>0</v>
       </c>
       <c r="U563" s="0" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="V563" s="0" t="n">
         <v>1</v>
@@ -37654,7 +37651,7 @@
     </row>
     <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B564" s="0" t="s">
         <v>25</v>
@@ -37663,7 +37660,7 @@
         <v>26</v>
       </c>
       <c r="D564" s="0" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E564" s="0" t="n">
         <v>1</v>
@@ -37710,7 +37707,7 @@
         <v>0</v>
       </c>
       <c r="U564" s="0" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="V564" s="0" t="n">
         <v>1</v>
@@ -37718,7 +37715,7 @@
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B565" s="0" t="s">
         <v>25</v>
@@ -37727,7 +37724,7 @@
         <v>26</v>
       </c>
       <c r="D565" s="0" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E565" s="0" t="n">
         <v>1</v>
@@ -37774,7 +37771,7 @@
         <v>1</v>
       </c>
       <c r="U565" s="0" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="V565" s="0" t="n">
         <v>1</v>
@@ -37782,7 +37779,7 @@
     </row>
     <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B566" s="0" t="s">
         <v>25</v>
@@ -37791,7 +37788,7 @@
         <v>26</v>
       </c>
       <c r="D566" s="0" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E566" s="0" t="n">
         <v>1</v>
@@ -37838,7 +37835,7 @@
         <v>0</v>
       </c>
       <c r="U566" s="0" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="V566" s="0" t="n">
         <v>1</v>
@@ -37846,7 +37843,7 @@
     </row>
     <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B567" s="0" t="s">
         <v>25</v>
@@ -37855,7 +37852,7 @@
         <v>26</v>
       </c>
       <c r="D567" s="0" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E567" s="0" t="n">
         <v>1</v>
@@ -37902,7 +37899,7 @@
         <v>0</v>
       </c>
       <c r="U567" s="0" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="V567" s="0" t="n">
         <v>1</v>
@@ -37910,7 +37907,7 @@
     </row>
     <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B568" s="0" t="s">
         <v>25</v>
@@ -37919,7 +37916,7 @@
         <v>26</v>
       </c>
       <c r="D568" s="0" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E568" s="0" t="n">
         <v>1</v>
@@ -37966,7 +37963,7 @@
         <v>0</v>
       </c>
       <c r="U568" s="0" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="V568" s="0" t="n">
         <v>1</v>
@@ -37974,7 +37971,7 @@
     </row>
     <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="0" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B569" s="0" t="s">
         <v>27</v>
@@ -37983,7 +37980,7 @@
         <v>28</v>
       </c>
       <c r="D569" s="0" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E569" s="0" t="n">
         <v>75</v>
@@ -38035,7 +38032,7 @@
     </row>
     <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="0" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B570" s="0" t="s">
         <v>32</v>
@@ -38044,7 +38041,7 @@
         <v>33</v>
       </c>
       <c r="D570" s="0" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E570" s="0" t="n">
         <v>85</v>
@@ -38096,7 +38093,7 @@
     </row>
     <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="0" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B571" s="0" t="s">
         <v>32</v>
@@ -38105,7 +38102,7 @@
         <v>33</v>
       </c>
       <c r="D571" s="0" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E571" s="0" t="n">
         <v>85</v>
@@ -38157,7 +38154,7 @@
     </row>
     <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="0" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B572" s="0" t="s">
         <v>32</v>
@@ -38166,7 +38163,7 @@
         <v>33</v>
       </c>
       <c r="D572" s="0" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E572" s="0" t="n">
         <v>85</v>
@@ -38218,7 +38215,7 @@
     </row>
     <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="0" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B573" s="0" t="s">
         <v>32</v>
@@ -38227,7 +38224,7 @@
         <v>33</v>
       </c>
       <c r="D573" s="0" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E573" s="0" t="n">
         <v>85</v>
@@ -38279,7 +38276,7 @@
     </row>
     <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="0" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B574" s="0" t="s">
         <v>27</v>
@@ -38288,7 +38285,7 @@
         <v>28</v>
       </c>
       <c r="D574" s="0" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E574" s="0" t="n">
         <v>75</v>
@@ -38340,7 +38337,7 @@
     </row>
     <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="0" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B575" s="0" t="s">
         <v>27</v>
@@ -38349,7 +38346,7 @@
         <v>28</v>
       </c>
       <c r="D575" s="0" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E575" s="0" t="n">
         <v>75</v>
@@ -38401,7 +38398,7 @@
     </row>
     <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="0" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B576" s="0" t="s">
         <v>32</v>
@@ -38410,7 +38407,7 @@
         <v>33</v>
       </c>
       <c r="D576" s="0" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E576" s="0" t="n">
         <v>85</v>
@@ -38461,7 +38458,7 @@
     </row>
     <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="0" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B577" s="0" t="s">
         <v>32</v>
@@ -38470,7 +38467,7 @@
         <v>33</v>
       </c>
       <c r="D577" s="0" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E577" s="0" t="n">
         <v>85</v>
@@ -38522,7 +38519,7 @@
     </row>
     <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="0" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B578" s="0" t="s">
         <v>36</v>
@@ -38531,7 +38528,7 @@
         <v>37</v>
       </c>
       <c r="D578" s="0" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E578" s="0" t="n">
         <v>30</v>
@@ -38582,7 +38579,7 @@
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="0" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B579" s="0" t="s">
         <v>36</v>
@@ -38591,7 +38588,7 @@
         <v>37</v>
       </c>
       <c r="D579" s="10" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E579" s="0" t="n">
         <v>30</v>
@@ -38642,7 +38639,7 @@
     </row>
     <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="0" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B580" s="0" t="s">
         <v>45</v>
@@ -38651,7 +38648,7 @@
         <v>46</v>
       </c>
       <c r="D580" s="10" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E580" s="0" t="n">
         <v>30</v>
@@ -38702,7 +38699,7 @@
     </row>
     <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="0" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B581" s="0" t="s">
         <v>36</v>
@@ -38711,7 +38708,7 @@
         <v>37</v>
       </c>
       <c r="D581" s="0" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E581" s="0" t="n">
         <v>30</v>
@@ -38763,7 +38760,7 @@
     </row>
     <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="0" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B582" s="0" t="s">
         <v>36</v>
@@ -38772,7 +38769,7 @@
         <v>37</v>
       </c>
       <c r="D582" s="0" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E582" s="0" t="n">
         <v>45</v>
@@ -38824,7 +38821,7 @@
     </row>
     <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="0" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B583" s="0" t="s">
         <v>36</v>
@@ -38833,7 +38830,7 @@
         <v>37</v>
       </c>
       <c r="D583" s="0" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E583" s="0" t="n">
         <v>30</v>
@@ -38885,7 +38882,7 @@
     </row>
     <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="0" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B584" s="0" t="s">
         <v>36</v>
@@ -38894,7 +38891,7 @@
         <v>37</v>
       </c>
       <c r="D584" s="0" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E584" s="0" t="n">
         <v>35</v>
@@ -38946,7 +38943,7 @@
     </row>
     <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="0" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B585" s="0" t="s">
         <v>36</v>
@@ -38955,7 +38952,7 @@
         <v>37</v>
       </c>
       <c r="D585" s="0" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E585" s="0" t="n">
         <v>30</v>
@@ -39007,7 +39004,7 @@
     </row>
     <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="0" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B586" s="0" t="s">
         <v>36</v>
@@ -39016,7 +39013,7 @@
         <v>37</v>
       </c>
       <c r="D586" s="0" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E586" s="0" t="n">
         <v>30</v>
@@ -39068,7 +39065,7 @@
     </row>
     <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="0" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B587" s="0" t="s">
         <v>36</v>
@@ -39077,7 +39074,7 @@
         <v>37</v>
       </c>
       <c r="D587" s="0" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E587" s="0" t="n">
         <v>40</v>
@@ -39129,7 +39126,7 @@
     </row>
     <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="0" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B588" s="0" t="s">
         <v>36</v>
@@ -39138,7 +39135,7 @@
         <v>37</v>
       </c>
       <c r="D588" s="0" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E588" s="0" t="n">
         <v>40</v>
@@ -39190,7 +39187,7 @@
     </row>
     <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="0" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B589" s="0" t="s">
         <v>36</v>
@@ -39199,7 +39196,7 @@
         <v>37</v>
       </c>
       <c r="D589" s="0" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E589" s="0" t="n">
         <v>40</v>
@@ -39246,7 +39243,7 @@
         <v>1</v>
       </c>
       <c r="S589" s="0" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="V589" s="0" t="n">
         <v>0</v>
@@ -39254,7 +39251,7 @@
     </row>
     <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="0" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B590" s="0" t="s">
         <v>36</v>
@@ -39263,7 +39260,7 @@
         <v>37</v>
       </c>
       <c r="D590" s="0" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E590" s="0" t="n">
         <v>60</v>
@@ -39315,7 +39312,7 @@
     </row>
     <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="0" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B591" s="0" t="s">
         <v>36</v>
@@ -39324,7 +39321,7 @@
         <v>37</v>
       </c>
       <c r="D591" s="0" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E591" s="0" t="n">
         <v>40</v>
@@ -39376,7 +39373,7 @@
     </row>
     <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="0" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B592" s="0" t="s">
         <v>36</v>
@@ -39385,7 +39382,7 @@
         <v>37</v>
       </c>
       <c r="D592" s="0" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E592" s="0" t="n">
         <v>40</v>
@@ -39437,7 +39434,7 @@
     </row>
     <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="0" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B593" s="0" t="s">
         <v>36</v>
@@ -39446,7 +39443,7 @@
         <v>37</v>
       </c>
       <c r="D593" s="0" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E593" s="0" t="n">
         <v>45</v>
@@ -39498,7 +39495,7 @@
     </row>
     <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="0" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B594" s="0" t="s">
         <v>36</v>
@@ -39507,7 +39504,7 @@
         <v>37</v>
       </c>
       <c r="D594" s="0" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E594" s="0" t="n">
         <v>45</v>
@@ -39559,7 +39556,7 @@
     </row>
     <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="0" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B595" s="0" t="s">
         <v>20</v>
@@ -39568,7 +39565,7 @@
         <v>21</v>
       </c>
       <c r="D595" s="0" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E595" s="0" t="n">
         <v>70.6</v>
@@ -39620,7 +39617,7 @@
     </row>
     <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="0" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B596" s="0" t="s">
         <v>20</v>
@@ -39629,7 +39626,7 @@
         <v>21</v>
       </c>
       <c r="D596" s="0" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E596" s="0" t="n">
         <v>60</v>
@@ -39680,7 +39677,7 @@
     </row>
     <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="0" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B597" s="0" t="s">
         <v>20</v>
@@ -39689,7 +39686,7 @@
         <v>21</v>
       </c>
       <c r="D597" s="0" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E597" s="0" t="n">
         <v>70.6</v>
@@ -39741,7 +39738,7 @@
     </row>
     <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="0" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B598" s="0" t="s">
         <v>20</v>
@@ -39750,7 +39747,7 @@
         <v>21</v>
       </c>
       <c r="D598" s="0" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E598" s="0" t="n">
         <v>25</v>
@@ -39802,7 +39799,7 @@
     </row>
     <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="0" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B599" s="0" t="s">
         <v>20</v>
@@ -39811,7 +39808,7 @@
         <v>21</v>
       </c>
       <c r="D599" s="0" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E599" s="0" t="n">
         <v>25</v>
@@ -39863,7 +39860,7 @@
     </row>
     <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="0" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B600" s="0" t="s">
         <v>20</v>
@@ -39872,7 +39869,7 @@
         <v>21</v>
       </c>
       <c r="D600" s="0" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E600" s="0" t="n">
         <v>60</v>
@@ -39923,7 +39920,7 @@
     </row>
     <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="0" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B601" s="0" t="s">
         <v>20</v>
@@ -39932,7 +39929,7 @@
         <v>21</v>
       </c>
       <c r="D601" s="0" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E601" s="0" t="n">
         <v>60</v>
@@ -39983,7 +39980,7 @@
     </row>
     <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="0" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B602" s="0" t="s">
         <v>20</v>
@@ -39992,7 +39989,7 @@
         <v>21</v>
       </c>
       <c r="D602" s="0" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E602" s="0" t="n">
         <v>60</v>
@@ -40043,7 +40040,7 @@
     </row>
     <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="0" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B603" s="0" t="s">
         <v>20</v>
@@ -40052,7 +40049,7 @@
         <v>21</v>
       </c>
       <c r="D603" s="0" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E603" s="0" t="n">
         <v>50</v>
@@ -40104,7 +40101,7 @@
     </row>
     <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="0" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B604" s="0" t="s">
         <v>36</v>
@@ -40113,7 +40110,7 @@
         <v>37</v>
       </c>
       <c r="D604" s="0" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E604" s="0" t="n">
         <v>34</v>
@@ -40164,7 +40161,7 @@
     </row>
     <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="0" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B605" s="0" t="s">
         <v>25</v>
@@ -40173,7 +40170,7 @@
         <v>26</v>
       </c>
       <c r="D605" s="0" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E605" s="0" t="n">
         <v>1</v>
@@ -40225,7 +40222,7 @@
     </row>
     <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="0" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B606" s="0" t="s">
         <v>25</v>
@@ -40234,7 +40231,7 @@
         <v>26</v>
       </c>
       <c r="D606" s="0" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E606" s="0" t="n">
         <v>1</v>
@@ -40286,7 +40283,7 @@
     </row>
     <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="0" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B607" s="0" t="s">
         <v>25</v>
@@ -40295,7 +40292,7 @@
         <v>26</v>
       </c>
       <c r="D607" s="0" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E607" s="0" t="n">
         <v>1</v>
@@ -40342,10 +40339,10 @@
         <v>0</v>
       </c>
       <c r="S607" s="0" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="U607" s="0" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="V607" s="0" t="n">
         <v>1</v>
@@ -40353,7 +40350,7 @@
     </row>
     <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="0" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B608" s="0" t="s">
         <v>25</v>
@@ -40362,7 +40359,7 @@
         <v>26</v>
       </c>
       <c r="D608" s="0" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E608" s="0" t="n">
         <v>1</v>
@@ -40409,10 +40406,10 @@
         <v>0</v>
       </c>
       <c r="S608" s="0" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="U608" s="0" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="V608" s="0" t="n">
         <v>1</v>
@@ -40420,7 +40417,7 @@
     </row>
     <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="0" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B609" s="0" t="s">
         <v>25</v>
@@ -40429,7 +40426,7 @@
         <v>26</v>
       </c>
       <c r="D609" s="0" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E609" s="0" t="n">
         <v>1</v>
@@ -40478,7 +40475,7 @@
         <v>26</v>
       </c>
       <c r="U609" s="0" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="V609" s="0" t="n">
         <v>1</v>
@@ -40486,7 +40483,7 @@
     </row>
     <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="0" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B610" s="0" t="s">
         <v>25</v>
@@ -40495,7 +40492,7 @@
         <v>26</v>
       </c>
       <c r="D610" s="0" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E610" s="0" t="n">
         <v>30</v>
@@ -40547,7 +40544,7 @@
     </row>
     <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="0" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B611" s="0" t="s">
         <v>25</v>
@@ -40556,7 +40553,7 @@
         <v>26</v>
       </c>
       <c r="D611" s="0" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E611" s="0" t="n">
         <v>1</v>
@@ -40608,7 +40605,7 @@
     </row>
     <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="0" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B612" s="0" t="s">
         <v>25</v>
@@ -40617,7 +40614,7 @@
         <v>26</v>
       </c>
       <c r="D612" s="0" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E612" s="0" t="n">
         <v>1</v>
@@ -40669,7 +40666,7 @@
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="0" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B613" s="0" t="s">
         <v>25</v>
@@ -40678,7 +40675,7 @@
         <v>26</v>
       </c>
       <c r="D613" s="0" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E613" s="0" t="n">
         <v>1</v>
@@ -40733,7 +40730,7 @@
     </row>
     <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="0" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B614" s="0" t="s">
         <v>20</v>
@@ -40742,7 +40739,7 @@
         <v>21</v>
       </c>
       <c r="D614" s="0" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E614" s="0" t="n">
         <v>33</v>
@@ -40793,7 +40790,7 @@
     </row>
     <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="0" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B615" s="0" t="s">
         <v>20</v>
@@ -40802,7 +40799,7 @@
         <v>21</v>
       </c>
       <c r="D615" s="0" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E615" s="0" t="n">
         <v>33</v>
@@ -40854,7 +40851,7 @@
     </row>
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="0" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B616" s="0" t="s">
         <v>20</v>
@@ -40863,7 +40860,7 @@
         <v>21</v>
       </c>
       <c r="D616" s="0" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E616" s="0" t="n">
         <v>33</v>
@@ -40915,7 +40912,7 @@
     </row>
     <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="0" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B617" s="0" t="s">
         <v>20</v>
@@ -40924,7 +40921,7 @@
         <v>21</v>
       </c>
       <c r="D617" s="0" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E617" s="0" t="n">
         <v>33</v>
@@ -40975,7 +40972,7 @@
     </row>
     <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="0" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B618" s="0" t="s">
         <v>20</v>
@@ -40984,7 +40981,7 @@
         <v>21</v>
       </c>
       <c r="D618" s="0" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E618" s="0" t="n">
         <v>60</v>
@@ -41036,7 +41033,7 @@
     </row>
     <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="0" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B619" s="0" t="s">
         <v>20</v>
@@ -41045,7 +41042,7 @@
         <v>21</v>
       </c>
       <c r="D619" s="0" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E619" s="0" t="n">
         <v>60</v>
@@ -41097,7 +41094,7 @@
     </row>
     <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="0" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B620" s="0" t="s">
         <v>36</v>
@@ -41106,7 +41103,7 @@
         <v>37</v>
       </c>
       <c r="D620" s="13" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E620" s="0" t="n">
         <v>100</v>
@@ -41157,7 +41154,7 @@
     </row>
     <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="0" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B621" s="0" t="s">
         <v>36</v>
@@ -41166,7 +41163,7 @@
         <v>37</v>
       </c>
       <c r="D621" s="0" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E621" s="0" t="n">
         <v>50</v>
@@ -41218,7 +41215,7 @@
     </row>
     <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="0" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B622" s="0" t="s">
         <v>36</v>
@@ -41227,7 +41224,7 @@
         <v>37</v>
       </c>
       <c r="D622" s="0" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E622" s="0" t="n">
         <v>50</v>
@@ -41279,7 +41276,7 @@
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="0" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B623" s="0" t="s">
         <v>36</v>
@@ -41288,7 +41285,7 @@
         <v>37</v>
       </c>
       <c r="D623" s="0" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E623" s="0" t="n">
         <v>60</v>
@@ -41339,7 +41336,7 @@
     </row>
     <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="0" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B624" s="0" t="s">
         <v>36</v>
@@ -41348,7 +41345,7 @@
         <v>37</v>
       </c>
       <c r="D624" s="0" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E624" s="0" t="n">
         <v>60</v>
@@ -41399,7 +41396,7 @@
     </row>
     <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="0" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B625" s="0" t="s">
         <v>36</v>
@@ -41408,7 +41405,7 @@
         <v>37</v>
       </c>
       <c r="D625" s="0" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E625" s="0" t="n">
         <v>60</v>
@@ -41459,7 +41456,7 @@
     </row>
     <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="0" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B626" s="0" t="s">
         <v>36</v>
@@ -41468,7 +41465,7 @@
         <v>37</v>
       </c>
       <c r="D626" s="0" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E626" s="0" t="n">
         <v>60</v>
@@ -41519,7 +41516,7 @@
     </row>
     <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="0" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B627" s="0" t="s">
         <v>36</v>
@@ -41528,7 +41525,7 @@
         <v>37</v>
       </c>
       <c r="D627" s="0" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E627" s="0" t="n">
         <v>60</v>
@@ -41580,7 +41577,7 @@
     </row>
     <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="0" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B628" s="0" t="s">
         <v>36</v>
@@ -41589,7 +41586,7 @@
         <v>37</v>
       </c>
       <c r="D628" s="0" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E628" s="0" t="n">
         <v>60</v>
@@ -41641,7 +41638,7 @@
     </row>
     <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="0" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B629" s="0" t="s">
         <v>36</v>
@@ -41650,7 +41647,7 @@
         <v>37</v>
       </c>
       <c r="D629" s="0" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E629" s="0" t="n">
         <v>60</v>
@@ -41701,7 +41698,7 @@
     </row>
     <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="0" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B630" s="0" t="s">
         <v>36</v>
@@ -41710,7 +41707,7 @@
         <v>37</v>
       </c>
       <c r="D630" s="0" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E630" s="0" t="n">
         <v>30</v>
@@ -41756,7 +41753,7 @@
         <v>0</v>
       </c>
       <c r="S630" s="0" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="V630" s="0" t="n">
         <v>0</v>
@@ -41764,7 +41761,7 @@
     </row>
     <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="0" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B631" s="0" t="s">
         <v>36</v>
@@ -41773,7 +41770,7 @@
         <v>37</v>
       </c>
       <c r="D631" s="0" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E631" s="0" t="n">
         <v>30</v>
@@ -41819,7 +41816,7 @@
         <v>0</v>
       </c>
       <c r="S631" s="0" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="V631" s="0" t="n">
         <v>0</v>
@@ -41827,7 +41824,7 @@
     </row>
     <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="0" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B632" s="0" t="s">
         <v>36</v>
@@ -41836,7 +41833,7 @@
         <v>37</v>
       </c>
       <c r="D632" s="0" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E632" s="0" t="n">
         <v>30</v>
@@ -41882,7 +41879,7 @@
         <v>0</v>
       </c>
       <c r="S632" s="0" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="V632" s="0" t="n">
         <v>0</v>
@@ -41890,7 +41887,7 @@
     </row>
     <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="0" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B633" s="0" t="s">
         <v>36</v>
@@ -41899,7 +41896,7 @@
         <v>37</v>
       </c>
       <c r="D633" s="0" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E633" s="0" t="n">
         <v>50</v>
@@ -41951,7 +41948,7 @@
     </row>
     <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="0" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B634" s="0" t="s">
         <v>36</v>
@@ -41960,7 +41957,7 @@
         <v>37</v>
       </c>
       <c r="D634" s="0" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E634" s="0" t="n">
         <v>50</v>
@@ -42012,7 +42009,7 @@
     </row>
     <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="0" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B635" s="0" t="s">
         <v>20</v>
@@ -42021,7 +42018,7 @@
         <v>21</v>
       </c>
       <c r="D635" s="0" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E635" s="0" t="n">
         <v>75</v>
@@ -42075,7 +42072,7 @@
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="0" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B636" s="0" t="s">
         <v>20</v>
@@ -42084,7 +42081,7 @@
         <v>21</v>
       </c>
       <c r="D636" s="0" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E636" s="0" t="n">
         <v>75</v>
@@ -42138,7 +42135,7 @@
     </row>
     <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="0" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B637" s="0" t="s">
         <v>20</v>
@@ -42147,7 +42144,7 @@
         <v>21</v>
       </c>
       <c r="D637" s="0" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E637" s="0" t="n">
         <v>75</v>
@@ -42201,7 +42198,7 @@
     </row>
     <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="0" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B638" s="0" t="s">
         <v>20</v>
@@ -42210,7 +42207,7 @@
         <v>21</v>
       </c>
       <c r="D638" s="0" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E638" s="0" t="n">
         <v>40</v>
@@ -42264,7 +42261,7 @@
     </row>
     <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="0" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B639" s="0" t="s">
         <v>20</v>
@@ -42273,7 +42270,7 @@
         <v>21</v>
       </c>
       <c r="D639" s="0" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E639" s="0" t="n">
         <v>40</v>
@@ -42327,7 +42324,7 @@
     </row>
     <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="0" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B640" s="0" t="s">
         <v>20</v>
@@ -42336,7 +42333,7 @@
         <v>21</v>
       </c>
       <c r="D640" s="0" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E640" s="0" t="n">
         <v>75</v>
@@ -42387,7 +42384,7 @@
     </row>
     <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="0" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B641" s="0" t="s">
         <v>20</v>
@@ -42396,7 +42393,7 @@
         <v>21</v>
       </c>
       <c r="D641" s="0" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E641" s="0" t="n">
         <v>75</v>
@@ -42447,7 +42444,7 @@
     </row>
     <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="0" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B642" s="0" t="s">
         <v>25</v>
@@ -42456,7 +42453,7 @@
         <v>26</v>
       </c>
       <c r="D642" s="0" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E642" s="0" t="n">
         <v>1</v>
@@ -42505,7 +42502,7 @@
         <v>50</v>
       </c>
       <c r="S642" s="0" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="U642" s="0" t="s">
         <v>115</v>
@@ -42516,7 +42513,7 @@
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="0" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B643" s="0" t="s">
         <v>25</v>
@@ -42525,7 +42522,7 @@
         <v>26</v>
       </c>
       <c r="D643" s="0" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E643" s="0" t="n">
         <v>1</v>
@@ -42579,7 +42576,7 @@
     </row>
     <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="0" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B644" s="0" t="s">
         <v>25</v>
@@ -42588,7 +42585,7 @@
         <v>26</v>
       </c>
       <c r="D644" s="0" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E644" s="0" t="n">
         <v>1</v>
@@ -42639,7 +42636,7 @@
     </row>
     <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="0" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B645" s="0" t="s">
         <v>20</v>
@@ -42648,7 +42645,7 @@
         <v>21</v>
       </c>
       <c r="D645" s="0" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E645" s="0" t="n">
         <v>50</v>
@@ -42697,7 +42694,7 @@
         <v>225</v>
       </c>
       <c r="S645" s="0" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="V645" s="0" t="n">
         <v>0</v>
@@ -42705,7 +42702,7 @@
     </row>
     <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="0" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B646" s="0" t="s">
         <v>20</v>
@@ -42714,7 +42711,7 @@
         <v>21</v>
       </c>
       <c r="D646" s="0" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E646" s="0" t="n">
         <v>50</v>
@@ -42763,7 +42760,7 @@
         <v>150</v>
       </c>
       <c r="S646" s="0" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="V646" s="0" t="n">
         <v>0</v>
@@ -42771,7 +42768,7 @@
     </row>
     <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="0" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B647" s="0" t="s">
         <v>20</v>
@@ -42780,7 +42777,7 @@
         <v>21</v>
       </c>
       <c r="D647" s="0" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E647" s="0" t="n">
         <v>50</v>
@@ -42831,7 +42828,7 @@
     </row>
     <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="0" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B648" s="0" t="s">
         <v>20</v>
@@ -42840,7 +42837,7 @@
         <v>21</v>
       </c>
       <c r="D648" s="0" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E648" s="0" t="n">
         <v>50</v>
@@ -42891,7 +42888,7 @@
     </row>
     <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="0" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B649" s="0" t="s">
         <v>20</v>
@@ -42900,7 +42897,7 @@
         <v>21</v>
       </c>
       <c r="D649" s="0" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E649" s="0" t="n">
         <v>50</v>
@@ -42952,7 +42949,7 @@
     </row>
     <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="0" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B650" s="0" t="s">
         <v>25</v>
@@ -42961,7 +42958,7 @@
         <v>26</v>
       </c>
       <c r="D650" s="0" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E650" s="0" t="n">
         <v>1</v>
@@ -43012,7 +43009,7 @@
     </row>
     <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="0" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B651" s="0" t="s">
         <v>36</v>
@@ -43021,7 +43018,7 @@
         <v>37</v>
       </c>
       <c r="D651" s="0" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E651" s="0" t="n">
         <v>40</v>
@@ -43073,7 +43070,7 @@
     </row>
     <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="0" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B652" s="0" t="s">
         <v>36</v>
@@ -43082,7 +43079,7 @@
         <v>37</v>
       </c>
       <c r="D652" s="0" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E652" s="0" t="n">
         <v>40</v>
@@ -43134,7 +43131,7 @@
     </row>
     <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="0" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B653" s="0" t="s">
         <v>36</v>
@@ -43143,7 +43140,7 @@
         <v>37</v>
       </c>
       <c r="D653" s="0" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E653" s="0" t="n">
         <v>40</v>
@@ -43195,7 +43192,7 @@
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="0" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B654" s="0" t="s">
         <v>25</v>
@@ -43204,7 +43201,7 @@
         <v>26</v>
       </c>
       <c r="D654" s="0" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E654" s="0" t="n">
         <v>1</v>
@@ -43255,7 +43252,7 @@
     </row>
     <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="0" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B655" s="0" t="s">
         <v>25</v>
@@ -43264,7 +43261,7 @@
         <v>26</v>
       </c>
       <c r="D655" s="0" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E655" s="0" t="n">
         <v>1</v>
@@ -43315,7 +43312,7 @@
     </row>
     <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="0" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B656" s="0" t="s">
         <v>25</v>
@@ -43324,7 +43321,7 @@
         <v>26</v>
       </c>
       <c r="D656" s="0" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E656" s="0" t="n">
         <v>92</v>
@@ -43376,7 +43373,7 @@
     </row>
     <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="0" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B657" s="0" t="s">
         <v>25</v>
@@ -43385,7 +43382,7 @@
         <v>26</v>
       </c>
       <c r="D657" s="0" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E657" s="0" t="n">
         <v>1</v>
@@ -43437,7 +43434,7 @@
     </row>
     <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="0" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B658" s="0" t="s">
         <v>25</v>
@@ -43446,7 +43443,7 @@
         <v>26</v>
       </c>
       <c r="D658" s="0" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E658" s="0" t="n">
         <v>1</v>
@@ -43498,7 +43495,7 @@
     </row>
     <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="0" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B659" s="0" t="s">
         <v>36</v>
@@ -43507,7 +43504,7 @@
         <v>37</v>
       </c>
       <c r="D659" s="0" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E659" s="0" t="n">
         <v>50</v>
@@ -43559,7 +43556,7 @@
     </row>
     <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="0" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B660" s="0" t="s">
         <v>36</v>
@@ -43568,7 +43565,7 @@
         <v>37</v>
       </c>
       <c r="D660" s="0" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E660" s="0" t="n">
         <v>50</v>
@@ -43620,7 +43617,7 @@
     </row>
     <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="0" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B661" s="0" t="s">
         <v>36</v>
@@ -43629,7 +43626,7 @@
         <v>37</v>
       </c>
       <c r="D661" s="0" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E661" s="0" t="n">
         <v>50</v>
@@ -43681,7 +43678,7 @@
     </row>
     <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="0" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B662" s="0" t="s">
         <v>36</v>
@@ -43690,7 +43687,7 @@
         <v>37</v>
       </c>
       <c r="D662" s="0" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E662" s="0" t="n">
         <v>50</v>
@@ -43742,7 +43739,7 @@
     </row>
     <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="0" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B663" s="0" t="s">
         <v>36</v>
@@ -43751,7 +43748,7 @@
         <v>37</v>
       </c>
       <c r="D663" s="0" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E663" s="0" t="n">
         <v>50</v>
@@ -43803,7 +43800,7 @@
     </row>
     <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="0" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B664" s="0" t="s">
         <v>36</v>
@@ -43812,7 +43809,7 @@
         <v>37</v>
       </c>
       <c r="D664" s="0" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E664" s="0" t="n">
         <v>50</v>
@@ -43864,7 +43861,7 @@
     </row>
     <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="0" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B665" s="0" t="s">
         <v>25</v>
@@ -43873,7 +43870,7 @@
         <v>26</v>
       </c>
       <c r="D665" s="0" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E665" s="0" t="n">
         <v>1</v>
@@ -43920,7 +43917,7 @@
         <v>0</v>
       </c>
       <c r="U665" s="11" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="V665" s="0" t="n">
         <v>1</v>
@@ -43928,7 +43925,7 @@
     </row>
     <row r="666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="0" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B666" s="0" t="s">
         <v>25</v>
@@ -43937,7 +43934,7 @@
         <v>26</v>
       </c>
       <c r="D666" s="0" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E666" s="0" t="n">
         <v>1</v>
@@ -43984,7 +43981,7 @@
         <v>0</v>
       </c>
       <c r="U666" s="11" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="V666" s="0" t="n">
         <v>1</v>
@@ -43992,7 +43989,7 @@
     </row>
     <row r="667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="0" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B667" s="0" t="s">
         <v>20</v>
@@ -44001,7 +43998,7 @@
         <v>21</v>
       </c>
       <c r="D667" s="0" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E667" s="0" t="n">
         <v>60</v>
@@ -44047,7 +44044,7 @@
         <v>0</v>
       </c>
       <c r="U667" s="11" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="V667" s="0" t="n">
         <v>1</v>
@@ -44055,7 +44052,7 @@
     </row>
     <row r="668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="0" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B668" s="0" t="s">
         <v>20</v>
@@ -44064,7 +44061,7 @@
         <v>21</v>
       </c>
       <c r="D668" s="0" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E668" s="0" t="n">
         <v>60</v>
@@ -44110,7 +44107,7 @@
         <v>0</v>
       </c>
       <c r="U668" s="11" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="V668" s="0" t="n">
         <v>1</v>
@@ -44118,7 +44115,7 @@
     </row>
     <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="0" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B669" s="0" t="s">
         <v>20</v>
@@ -44127,7 +44124,7 @@
         <v>21</v>
       </c>
       <c r="D669" s="0" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E669" s="0" t="n">
         <v>77</v>
@@ -44173,7 +44170,7 @@
         <v>0</v>
       </c>
       <c r="U669" s="11" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="V669" s="0" t="n">
         <v>1</v>
@@ -44181,7 +44178,7 @@
     </row>
     <row r="670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="0" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B670" s="0" t="s">
         <v>20</v>
@@ -44190,7 +44187,7 @@
         <v>21</v>
       </c>
       <c r="D670" s="0" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E670" s="0" t="n">
         <v>60</v>
@@ -44236,7 +44233,7 @@
         <v>0</v>
       </c>
       <c r="U670" s="11" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="V670" s="0" t="n">
         <v>1</v>
@@ -44244,7 +44241,7 @@
     </row>
     <row r="671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="0" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B671" s="0" t="s">
         <v>20</v>
@@ -44253,7 +44250,7 @@
         <v>21</v>
       </c>
       <c r="D671" s="0" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E671" s="0" t="n">
         <v>60</v>
@@ -44299,7 +44296,7 @@
         <v>0</v>
       </c>
       <c r="U671" s="11" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="V671" s="0" t="n">
         <v>1</v>
@@ -44307,7 +44304,7 @@
     </row>
     <row r="672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="0" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B672" s="0" t="s">
         <v>20</v>
@@ -44316,7 +44313,7 @@
         <v>21</v>
       </c>
       <c r="D672" s="0" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E672" s="0" t="n">
         <v>77</v>
@@ -44362,7 +44359,7 @@
         <v>0</v>
       </c>
       <c r="U672" s="11" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="V672" s="0" t="n">
         <v>1</v>
@@ -44370,7 +44367,7 @@
     </row>
     <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="0" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B673" s="0" t="s">
         <v>36</v>
@@ -44379,7 +44376,7 @@
         <v>37</v>
       </c>
       <c r="D673" s="0" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E673" s="0" t="n">
         <v>38</v>
@@ -44425,7 +44422,7 @@
         <v>0</v>
       </c>
       <c r="U673" s="11" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="V673" s="0" t="n">
         <v>1</v>
@@ -44433,7 +44430,7 @@
     </row>
     <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="0" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B674" s="0" t="s">
         <v>36</v>
@@ -44442,7 +44439,7 @@
         <v>37</v>
       </c>
       <c r="D674" s="0" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E674" s="0" t="n">
         <v>37</v>
@@ -44488,7 +44485,7 @@
         <v>0</v>
       </c>
       <c r="U674" s="11" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="V674" s="0" t="n">
         <v>1</v>
@@ -44496,7 +44493,7 @@
     </row>
     <row r="675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="0" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B675" s="0" t="s">
         <v>36</v>
@@ -44505,7 +44502,7 @@
         <v>37</v>
       </c>
       <c r="D675" s="0" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E675" s="0" t="n">
         <v>50</v>
@@ -44551,7 +44548,7 @@
         <v>0</v>
       </c>
       <c r="U675" s="11" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="V675" s="0" t="n">
         <v>1</v>
@@ -44559,7 +44556,7 @@
     </row>
     <row r="676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="0" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B676" s="0" t="s">
         <v>36</v>
@@ -44568,7 +44565,7 @@
         <v>37</v>
       </c>
       <c r="D676" s="0" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E676" s="0" t="n">
         <v>50</v>
@@ -44614,7 +44611,7 @@
         <v>0</v>
       </c>
       <c r="U676" s="11" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="V676" s="0" t="n">
         <v>1</v>
@@ -44622,7 +44619,7 @@
     </row>
     <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="0" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B677" s="0" t="s">
         <v>36</v>
@@ -44631,7 +44628,7 @@
         <v>37</v>
       </c>
       <c r="D677" s="0" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E677" s="0" t="n">
         <v>45</v>
@@ -44677,7 +44674,7 @@
         <v>0</v>
       </c>
       <c r="U677" s="11" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="V677" s="0" t="n">
         <v>1</v>
@@ -44685,7 +44682,7 @@
     </row>
     <row r="678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="0" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B678" s="0" t="s">
         <v>36</v>
@@ -44694,7 +44691,7 @@
         <v>37</v>
       </c>
       <c r="D678" s="0" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E678" s="0" t="n">
         <v>50</v>
@@ -44740,7 +44737,7 @@
         <v>0</v>
       </c>
       <c r="U678" s="11" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="V678" s="0" t="n">
         <v>1</v>

--- a/produits.xlsx
+++ b/produits.xlsx
@@ -2836,9 +2836,9 @@
   <dimension ref="A1:W727"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A234" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E253" activeCellId="0" sqref="E253"/>
+      <selection pane="bottomLeft" activeCell="D232" activeCellId="0" sqref="D232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4649,9 +4649,6 @@
       <c r="C29" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="E29" s="0" t="s">
         <v>64</v>
       </c>
@@ -6678,7 +6675,7 @@
         <v>22</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E61" s="0" t="s">
         <v>104</v>
@@ -7333,7 +7330,7 @@
         <v>41</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E71" s="0" t="s">
         <v>114</v>
@@ -8246,9 +8243,6 @@
       <c r="C85" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D85" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="E85" s="0" t="s">
         <v>131</v>
       </c>
@@ -8312,9 +8306,6 @@
       <c r="C86" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D86" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="E86" s="0" t="s">
         <v>132</v>
       </c>
@@ -8441,9 +8432,6 @@
       <c r="C88" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D88" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="E88" s="0" t="s">
         <v>134</v>
       </c>
@@ -10147,9 +10135,6 @@
       <c r="C115" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="D115" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="E115" s="0" t="s">
         <v>165</v>
       </c>
@@ -10273,9 +10258,6 @@
       <c r="C117" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="D117" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="E117" s="0" t="s">
         <v>167</v>
       </c>
@@ -10401,6 +10383,9 @@
       <c r="C119" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="D119" s="0" t="n">
+        <v>20</v>
+      </c>
       <c r="E119" s="0" t="s">
         <v>170</v>
       </c>
@@ -10527,6 +10512,9 @@
       <c r="C121" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="D121" s="0" t="n">
+        <v>20</v>
+      </c>
       <c r="E121" s="0" t="s">
         <v>172</v>
       </c>
@@ -11420,9 +11408,6 @@
       <c r="C135" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D135" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="E135" s="0" t="s">
         <v>188</v>
       </c>
@@ -12453,9 +12438,6 @@
       <c r="C151" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="D151" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="E151" s="0" t="s">
         <v>204</v>
       </c>
@@ -13096,9 +13078,6 @@
       <c r="C161" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="D161" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="E161" s="0" t="s">
         <v>218</v>
       </c>
@@ -15497,9 +15476,6 @@
       <c r="C199" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="D199" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="E199" s="0" t="s">
         <v>264</v>
       </c>
@@ -17547,9 +17523,6 @@
       <c r="C232" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D232" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="E232" s="10" t="s">
         <v>299</v>
       </c>
@@ -23548,6 +23521,9 @@
       <c r="C328" s="0" t="s">
         <v>74</v>
       </c>
+      <c r="D328" s="0" t="n">
+        <v>20</v>
+      </c>
       <c r="E328" s="0" t="s">
         <v>407</v>
       </c>
@@ -27893,6 +27869,9 @@
       <c r="C399" s="0" t="s">
         <v>74</v>
       </c>
+      <c r="D399" s="0" t="n">
+        <v>20</v>
+      </c>
       <c r="E399" s="0" t="s">
         <v>486</v>
       </c>
@@ -38846,6 +38825,9 @@
       </c>
       <c r="C576" s="0" t="s">
         <v>37</v>
+      </c>
+      <c r="D576" s="0" t="n">
+        <v>20</v>
       </c>
       <c r="E576" s="0" t="s">
         <v>687</v>
